--- a/assets/jimalaya.xlsx
+++ b/assets/jimalaya.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talor.samara\Desktop\myProject\arbox-db\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FC02EF-3D07-4FB2-A255-8CBBFD00E348}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0840B442-E659-0F4C-A509-6E1568D72E2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DAFC7697-E8A1-C34C-A478-3187AEADA85D}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="24680" windowHeight="15000" xr2:uid="{DAFC7697-E8A1-C34C-A478-3187AEADA85D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,6 +138,9 @@
     <t>stinson@yahoo.com</t>
   </si>
   <si>
+    <t>462) 223-1544</t>
+  </si>
+  <si>
     <t>(257) 720-9175</t>
   </si>
   <si>
@@ -172,27 +175,16 @@
   </si>
   <si>
     <t>quaterly</t>
-  </si>
-  <si>
-    <t>(462) 223-1544</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,17 +207,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -538,22 +527,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A381CA4-8614-714C-B1B8-1A8F0604584C}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="20.296875" customWidth="1"/>
-    <col min="5" max="5" width="20.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,17 +553,17 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -587,7 +574,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1">
         <v>44028</v>
@@ -596,10 +583,10 @@
         <v>44365</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -610,7 +597,7 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1">
         <v>44063</v>
@@ -619,10 +606,10 @@
         <v>44441</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -633,7 +620,7 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1">
         <v>44134</v>
@@ -642,10 +629,10 @@
         <v>44460</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -656,7 +643,7 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1">
         <v>44158</v>
@@ -665,10 +652,10 @@
         <v>44477</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -679,7 +666,7 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1">
         <v>44162</v>
@@ -688,10 +675,10 @@
         <v>44490</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -702,7 +689,7 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1">
         <v>44173</v>
@@ -711,10 +698,10 @@
         <v>44498</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -725,7 +712,7 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1">
         <v>44175</v>
@@ -734,10 +721,10 @@
         <v>44502</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -748,7 +735,7 @@
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1">
         <v>44207</v>
@@ -757,10 +744,10 @@
         <v>44511</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -771,7 +758,7 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1">
         <v>44307</v>
@@ -780,21 +767,21 @@
         <v>44518</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1">
         <v>44320</v>
@@ -803,17 +790,10 @@
         <v>44519</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="2"/>
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{8E486C5C-85B8-4FFA-8009-0366E39AE53D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/assets/jimalaya.xlsx
+++ b/assets/jimalaya.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alen/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talor.samara\Desktop\myProject\arbox-script-builder\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0840B442-E659-0F4C-A509-6E1568D72E2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EB71B9-9A07-4E83-9196-2C445B2EC48B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="24680" windowHeight="15000" xr2:uid="{DAFC7697-E8A1-C34C-A478-3187AEADA85D}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8832" xr2:uid="{DAFC7697-E8A1-C34C-A478-3187AEADA85D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,9 +138,6 @@
     <t>stinson@yahoo.com</t>
   </si>
   <si>
-    <t>462) 223-1544</t>
-  </si>
-  <si>
     <t>(257) 720-9175</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>quaterly</t>
+  </si>
+  <si>
+    <t>(462) 223-1544</t>
   </si>
 </sst>
 </file>
@@ -527,20 +527,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A381CA4-8614-714C-B1B8-1A8F0604584C}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A12" sqref="A12:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -574,7 +574,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1">
         <v>44028</v>
@@ -583,10 +583,10 @@
         <v>44365</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -597,7 +597,7 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1">
         <v>44063</v>
@@ -606,10 +606,10 @@
         <v>44441</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -620,7 +620,7 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1">
         <v>44134</v>
@@ -629,10 +629,10 @@
         <v>44460</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -643,7 +643,7 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1">
         <v>44158</v>
@@ -652,10 +652,10 @@
         <v>44477</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -666,7 +666,7 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1">
         <v>44162</v>
@@ -675,10 +675,10 @@
         <v>44490</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -689,7 +689,7 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1">
         <v>44173</v>
@@ -698,10 +698,10 @@
         <v>44498</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -712,7 +712,7 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1">
         <v>44175</v>
@@ -721,10 +721,10 @@
         <v>44502</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -735,7 +735,7 @@
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1">
         <v>44207</v>
@@ -744,10 +744,10 @@
         <v>44511</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -758,7 +758,7 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1">
         <v>44307</v>
@@ -767,10 +767,10 @@
         <v>44518</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -781,7 +781,7 @@
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1">
         <v>44320</v>
@@ -790,10 +790,15 @@
         <v>44519</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>